--- a/output.xlsx
+++ b/output.xlsx
@@ -10,13 +10,14 @@
     <sheet name="192.168.0.247-ex-port" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="192.168.0.247-flavor" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="192.168.0.247-floating-ip" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="192.168.0.247-image" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="192.168.0.247-instance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="192.168.0.247-lb" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="192.168.0.247-project" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="192.168.0.247-role_ass" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="192.168.0.247-router" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="192.168.0.247-volume" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="192.168.0.247-hypervisor" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="192.168.0.247-image" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="192.168.0.247-instance" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="192.168.0.247-lb" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="192.168.0.247-project" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="192.168.0.247-role_ass" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="192.168.0.247-router" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="192.168.0.247-volume" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,6 +653,163 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>router_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>external_net_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>external_net_ip</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>admin_state</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c29de560-dd94-429d-98d6-d0504bd88c69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>192.168.0.44</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-08-20T07:48:24Z</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-08-20T08:18:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cf0f8d2e-ecd7-4822-8e01-e5713595cbd8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>demo-router</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-08-20T13:05:42Z</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-08-20T13:05:46Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1041,6 +1199,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>hypervisor_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>hypervisor_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vcpus</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>vcpus_usage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>memory_size</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>memory_usage</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>local_disk_usage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>local_disk_size</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>availability_zone</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>vm_count</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>aggregates0.id</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>aggregates0.name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7305bc6e-505c-465f-ae78-b6b2ec60e41d</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QEMU</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>khanhtv-os-aio</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>64805</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>251</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>nova</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1217,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,8 +1895,8 @@
     <col width="34" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="34" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1595,24 +1927,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>scope.system.all</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>scope.domain.id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>scope.system.all</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6246c0da83654eb6b5fcb27a2aff2fc7</t>
+          <t>204b9d8448664e998ec8ac65c4c835b3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>heat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1634,22 +1966,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1d26bc757791457e90108f83dd5d864d</t>
+          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>octavia</t>
+          <t>nova</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>service</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1661,12 +1993,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
+          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nova</t>
+          <t>neutron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1688,12 +2020,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>204b9d8448664e998ec8ac65c4c835b3</t>
+          <t>1d26bc757791457e90108f83dd5d864d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>heat</t>
+          <t>octavia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1725,12 +2057,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1742,54 +2074,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
+          <t>a4274837bccc4a62b2fb5c105e639371</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>neutron</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
+          <t>7eeb2a15f7074a2f8360af43cf179c7a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>heat_stack_owner</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a4274837bccc4a62b2fb5c105e639371</t>
+          <t>6246c0da83654eb6b5fcb27a2aff2fc7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
+          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
         </is>
       </c>
     </row>
@@ -1806,12 +2138,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7eeb2a15f7074a2f8360af43cf179c7a</t>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>heat_stack_owner</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1833,12 +2165,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>service</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1850,12 +2182,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>e147522ee1c44bc9b54f205c20ac6652</t>
+          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>glance</t>
+          <t>cinder</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1877,49 +2209,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>110b15a469384291bb6eef7a5814fcb2</t>
+          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>heat_domain_admin</t>
+          <t>cinder</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>eb0c15ef6a6e414691ae5b7d0f9b5302</t>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
+          <t>e147522ee1c44bc9b54f205c20ac6652</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cinder</t>
+          <t>glance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1949,19 +2281,19 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G14" t="b">
+      <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
+          <t>110b15a469384291bb6eef7a5814fcb2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cinder</t>
+          <t>heat_domain_admin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1974,166 +2306,9 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>router_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>external_net_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>external_net_ip</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>admin_state</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>c29de560-dd94-429d-98d6-d0504bd88c69</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>192.168.0.44</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024-08-20T07:48:24Z</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-08-20T08:18:26Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cf0f8d2e-ecd7-4822-8e01-e5713595cbd8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>demo-router</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024-08-20T13:05:42Z</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-08-20T13:05:46Z</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>eb0c15ef6a6e414691ae5b7d0f9b5302</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,17 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="192.168.0.247-ex-port" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="192.168.0.247-flavor" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="192.168.0.247-floating-ip" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="192.168.0.247-hypervisor" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="192.168.0.247-image" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="192.168.0.247-instance" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="192.168.0.247-lb" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="192.168.0.247-project" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="192.168.0.247-role_ass" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="192.168.0.247-router" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="192.168.0.247-volume" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="192.168.0.247-flavor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="192.168.0.247-floating-ip" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="192.168.0.247-image" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="192.168.0.247-instance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="192.168.0.247-project" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="192.168.0.247-role_ass" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="192.168.0.247-router" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="192.168.0.247-volume" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,509 +432,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="79" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>port_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>subnet_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>subnet_cidr</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ip_address</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>network_id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>device_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>device_owner</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>e30f4cf3-21c5-4a07-852c-68d5f6e67592</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3f52f84c-dfa3-462e-a5a0-0ed900e16e5c</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>192.168.0.2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>dhcp475ccbb9-b379-5554-8c44-113e09ec862d-1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>network:dhcp</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>b5ac69ca-deb3-4dcd-a645-365c28c80192</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3f52f84c-dfa3-462e-a5a0-0ed900e16e5c</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>192.168.0.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>c29de560-dd94-429d-98d6-d0504bd88c69</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>network:router_gateway</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2da5a801-f130-40af-97a9-703b6ab2000e</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3f52f84c-dfa3-462e-a5a0-0ed900e16e5c</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>192.168.0.150</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>a60d4042-5cd2-4619-b6e2-97c057a4c39d</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>network:floatingip</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>router_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>external_net_id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>external_net_ip</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>admin_state</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>c29de560-dd94-429d-98d6-d0504bd88c69</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>192.168.0.44</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024-08-20T07:48:24Z</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-08-20T08:18:26Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cf0f8d2e-ecd7-4822-8e01-e5713595cbd8</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>demo-router</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024-08-20T13:05:42Z</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-08-20T13:05:46Z</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="28" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>volume_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>volume_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>attachments</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>snapshots</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3f3507ac-632f-4949-8863-81b55c59a07c</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>__DEFAULT__</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-09-05T13:00:02.000000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-08-20T13:08:38.000000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,7 +567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1193,181 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="17" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="18" customWidth="1" min="15" max="15"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>hypervisor_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>hypervisor_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>vcpus</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vcpus_usage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>memory_size</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>memory_usage</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>local_disk_usage</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>local_disk_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>availability_zone</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>vm_count</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>aggregates0.id</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>aggregates0.name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7305bc6e-505c-465f-ae78-b6b2ec60e41d</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QEMU</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>khanhtv-os-aio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64805</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>251</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nova</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1531,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,93 +869,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>load_balancer_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>provisioning_status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>operating_status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>68b31803-7375-4aea-8848-2ea217292eb8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>OFFLINE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1646,20 +886,21 @@
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="16" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1680,70 +921,75 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>domain_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>enabled</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>parent_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>usage_instance</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>quota_instance</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>usage_vcpu</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>quota_vcpu</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>usage_ram</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>quota_ram</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>usage_volume</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>quota_volume</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>usage_snapshot</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>quota_snapshot</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>usage_storage</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>quota_storage</t>
         </is>
@@ -1765,48 +1011,53 @@
           <t>default</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>20</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>51200</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>10</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>10</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -1826,48 +1077,53 @@
           <t>default</t>
         </is>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>20</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>51200</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>10</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>10</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -1876,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1895,8 +1151,8 @@
     <col width="34" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1927,24 +1183,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>scope.domain.id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>scope.system.all</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>scope.domain.id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>204b9d8448664e998ec8ac65c4c835b3</t>
+          <t>6246c0da83654eb6b5fcb27a2aff2fc7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>heat</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1966,22 +1222,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
+          <t>1d26bc757791457e90108f83dd5d864d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nova</t>
+          <t>octavia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1993,22 +1249,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
+          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>neutron</t>
+          <t>nova</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>service</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2020,12 +1276,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1d26bc757791457e90108f83dd5d864d</t>
+          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>octavia</t>
+          <t>neutron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2047,12 +1303,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
+          <t>204b9d8448664e998ec8ac65c4c835b3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nova</t>
+          <t>heat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2074,39 +1330,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a4274837bccc4a62b2fb5c105e639371</t>
+          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>neutron</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7eeb2a15f7074a2f8360af43cf179c7a</t>
+          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>heat_stack_owner</t>
+          <t>service</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
+          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6246c0da83654eb6b5fcb27a2aff2fc7</t>
+          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>cinder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2128,66 +1384,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a4274837bccc4a62b2fb5c105e639371</t>
+          <t>2e5f1d1b3f8443a1a3227d18c6079155</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>nova</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92d92d3ee1f74559bc60259e43079d45</t>
+          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>841ce4b1d95d4049b1dd36f639c8e432</t>
+          <t>a4274837bccc4a62b2fb5c105e639371</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>neutron</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>950ef9fa1a6845cba174d32d2fa313fd</t>
+          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dc6b7001f4ab4e0c90723dc95f02a3be</t>
+          <t>110b15a469384291bb6eef7a5814fcb2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cinder</t>
+          <t>heat_domain_admin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2200,9 +1456,9 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90c10b7ea75a4533a33b45e80afe42a1</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>eb0c15ef6a6e414691ae5b7d0f9b5302</t>
         </is>
       </c>
     </row>
@@ -2273,27 +1529,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>043b6e9ed6a54d6ba43519dbd2190f08</t>
+          <t>7eeb2a15f7074a2f8360af43cf179c7a</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
+          <t>heat_stack_owner</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>110b15a469384291bb6eef7a5814fcb2</t>
+          <t>a4274837bccc4a62b2fb5c105e639371</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>heat_domain_admin</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2306,9 +1564,292 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>eb0c15ef6a6e414691ae5b7d0f9b5302</t>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>router_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>external_net_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>external_net_ip</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>admin_state</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c29de560-dd94-429d-98d6-d0504bd88c69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1df457d2-a887-4d08-9a10-912e9abfa382</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>192.168.0.44</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-08-20T07:48:24Z</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-08-20T08:18:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cf0f8d2e-ecd7-4822-8e01-e5713595cbd8</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>demo-router</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-08-20T13:05:42Z</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-08-20T13:05:46Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>volume_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>attachments</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>snapshots</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3f3507ac-632f-4949-8863-81b55c59a07c</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>92d92d3ee1f74559bc60259e43079d45</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>__DEFAULT__</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-09-05T13:00:02.000000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-08-20T13:08:38.000000</t>
         </is>
       </c>
     </row>
